--- a/Safe_Results/SA_Scenarios/SA_Scenarios_DC.xlsx
+++ b/Safe_Results/SA_Scenarios/SA_Scenarios_DC.xlsx
@@ -521,46 +521,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2552.8792</v>
+        <v>2360.32395</v>
       </c>
       <c r="C2" t="n">
-        <v>6156.081700000001</v>
+        <v>6151.921500000001</v>
       </c>
       <c r="D2" t="n">
-        <v>1.4693</v>
+        <v>0.8878</v>
       </c>
       <c r="E2" t="n">
-        <v>4723.838699999998</v>
+        <v>4474.151599999999</v>
       </c>
       <c r="F2" t="n">
-        <v>660627.6890499998</v>
+        <v>630074.3825000001</v>
       </c>
       <c r="G2" t="n">
-        <v>577542.1349000001</v>
+        <v>553200.78605</v>
       </c>
       <c r="H2" t="n">
-        <v>83085.55374999999</v>
+        <v>76873.59650000001</v>
       </c>
       <c r="I2" t="n">
-        <v>33975.13804999999</v>
+        <v>33156.82405</v>
       </c>
       <c r="J2" t="n">
-        <v>49110.4157</v>
+        <v>43716.77245</v>
       </c>
       <c r="K2" t="n">
-        <v>836066.0697999999</v>
+        <v>799697.4858</v>
       </c>
       <c r="L2" t="n">
-        <v>577542.1409999999</v>
+        <v>553200.799</v>
       </c>
       <c r="M2" t="n">
-        <v>258523.9288</v>
+        <v>246496.6868</v>
       </c>
       <c r="N2" t="n">
-        <v>76567.7188</v>
+        <v>74864.5508</v>
       </c>
       <c r="O2" t="n">
-        <v>181956.2098</v>
+        <v>171632.1358</v>
       </c>
     </row>
     <row r="3">
@@ -570,46 +570,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2737.189</v>
+        <v>2475.847</v>
       </c>
       <c r="C3" t="n">
-        <v>6534.212</v>
+        <v>6526.769</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2977.918</v>
+        <v>2776.521</v>
       </c>
       <c r="F3" t="n">
-        <v>701002.088</v>
+        <v>670863.079</v>
       </c>
       <c r="G3" t="n">
-        <v>600374.081</v>
+        <v>568305.581</v>
       </c>
       <c r="H3" t="n">
-        <v>100628.007</v>
+        <v>102557.498</v>
       </c>
       <c r="I3" t="n">
-        <v>47854.796</v>
+        <v>49350.841</v>
       </c>
       <c r="J3" t="n">
-        <v>52773.211</v>
+        <v>53206.657</v>
       </c>
       <c r="K3" t="n">
-        <v>819205.616</v>
+        <v>786076.3017999999</v>
       </c>
       <c r="L3" t="n">
-        <v>600374.022</v>
+        <v>568305.598</v>
       </c>
       <c r="M3" t="n">
-        <v>218831.594</v>
+        <v>217770.7038</v>
       </c>
       <c r="N3" t="n">
-        <v>78497.78</v>
+        <v>80335.28540000001</v>
       </c>
       <c r="O3" t="n">
-        <v>140333.8138</v>
+        <v>137435.4182</v>
       </c>
     </row>
     <row r="4">
@@ -619,46 +619,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4370.877</v>
+        <v>4453.662</v>
       </c>
       <c r="C4" t="n">
-        <v>5440.119</v>
+        <v>5543.459</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5319.21</v>
+        <v>4738.919</v>
       </c>
       <c r="F4" t="n">
-        <v>962132.608</v>
+        <v>909377.991</v>
       </c>
       <c r="G4" t="n">
-        <v>757075.2169999999</v>
+        <v>766298.265</v>
       </c>
       <c r="H4" t="n">
-        <v>205057.391</v>
+        <v>143079.726</v>
       </c>
       <c r="I4" t="n">
-        <v>58109.198</v>
+        <v>57813.58</v>
       </c>
       <c r="J4" t="n">
-        <v>146948.193</v>
+        <v>85266.14599999999</v>
       </c>
       <c r="K4" t="n">
-        <v>834012.8136000001</v>
+        <v>811179.3924</v>
       </c>
       <c r="L4" t="n">
-        <v>764924.6310000001</v>
+        <v>774147.678</v>
       </c>
       <c r="M4" t="n">
-        <v>69088.1826</v>
+        <v>37031.7144</v>
       </c>
       <c r="N4" t="n">
-        <v>28334.465</v>
+        <v>20358.9328</v>
       </c>
       <c r="O4" t="n">
-        <v>40753.7176</v>
+        <v>16672.7818</v>
       </c>
     </row>
   </sheetData>
@@ -764,46 +764,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2569.146299999999</v>
+        <v>2359.05995</v>
       </c>
       <c r="C2" t="n">
-        <v>6215.4094</v>
+        <v>6231.029950000002</v>
       </c>
       <c r="D2" t="n">
-        <v>1.4693</v>
+        <v>0.8878</v>
       </c>
       <c r="E2" t="n">
-        <v>4983.807849999999</v>
+        <v>4491.621249999999</v>
       </c>
       <c r="F2" t="n">
-        <v>666531.8665999997</v>
+        <v>635986.0139</v>
       </c>
       <c r="G2" t="n">
-        <v>583667.8493999999</v>
+        <v>556239.7016499999</v>
       </c>
       <c r="H2" t="n">
-        <v>82864.01694999999</v>
+        <v>79746.31245</v>
       </c>
       <c r="I2" t="n">
-        <v>31173.3129</v>
+        <v>31680.05055</v>
       </c>
       <c r="J2" t="n">
-        <v>51690.70404999999</v>
+        <v>48066.2619</v>
       </c>
       <c r="K2" t="n">
-        <v>782320.6037999999</v>
+        <v>746784.1983999999</v>
       </c>
       <c r="L2" t="n">
-        <v>583667.8639999999</v>
+        <v>556239.7169999999</v>
       </c>
       <c r="M2" t="n">
-        <v>198652.7398</v>
+        <v>190544.4814</v>
       </c>
       <c r="N2" t="n">
-        <v>56815.59079999999</v>
+        <v>58208.5764</v>
       </c>
       <c r="O2" t="n">
-        <v>141837.1492</v>
+        <v>132335.905</v>
       </c>
     </row>
     <row r="3">
@@ -813,10 +813,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2783.879</v>
+        <v>2596.697</v>
       </c>
       <c r="C3" t="n">
-        <v>6444.433</v>
+        <v>6412.722</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -825,34 +825,34 @@
         <v>3142.458</v>
       </c>
       <c r="F3" t="n">
-        <v>712199.571</v>
+        <v>681037.809</v>
       </c>
       <c r="G3" t="n">
-        <v>603550.498</v>
+        <v>580646.203</v>
       </c>
       <c r="H3" t="n">
-        <v>108649.073</v>
+        <v>100391.606</v>
       </c>
       <c r="I3" t="n">
-        <v>49059.834</v>
+        <v>46157.504</v>
       </c>
       <c r="J3" t="n">
-        <v>59589.239</v>
+        <v>54234.102</v>
       </c>
       <c r="K3" t="n">
-        <v>773203.6981999999</v>
+        <v>738858.0728</v>
       </c>
       <c r="L3" t="n">
-        <v>603550.5379999999</v>
+        <v>580646.159</v>
       </c>
       <c r="M3" t="n">
-        <v>169653.1602</v>
+        <v>158211.9138</v>
       </c>
       <c r="N3" t="n">
-        <v>63380.7578</v>
+        <v>58572.50919999999</v>
       </c>
       <c r="O3" t="n">
-        <v>106272.4026</v>
+        <v>99639.40479999999</v>
       </c>
     </row>
     <row r="4">
@@ -862,46 +862,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4043.38</v>
+        <v>3680.941</v>
       </c>
       <c r="C4" t="n">
-        <v>5610.918</v>
+        <v>5624.402</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>4445.337</v>
+        <v>3221.5</v>
       </c>
       <c r="F4" t="n">
-        <v>843942.648</v>
+        <v>791841.416</v>
       </c>
       <c r="G4" t="n">
-        <v>719179.027</v>
+        <v>668535.621</v>
       </c>
       <c r="H4" t="n">
-        <v>124763.621</v>
+        <v>123305.795</v>
       </c>
       <c r="I4" t="n">
-        <v>29152.473</v>
+        <v>31231.031</v>
       </c>
       <c r="J4" t="n">
-        <v>95611.148</v>
+        <v>92074.764</v>
       </c>
       <c r="K4" t="n">
-        <v>801963.0036000001</v>
+        <v>755955.9550000001</v>
       </c>
       <c r="L4" t="n">
-        <v>727028.441</v>
+        <v>676385.035</v>
       </c>
       <c r="M4" t="n">
-        <v>74934.56259999999</v>
+        <v>79570.92</v>
       </c>
       <c r="N4" t="n">
-        <v>25728.7236</v>
+        <v>33297.649</v>
       </c>
       <c r="O4" t="n">
-        <v>49205.83899999999</v>
+        <v>46273.271</v>
       </c>
     </row>
   </sheetData>
@@ -1007,46 +1007,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2721.2112</v>
+        <v>2503.9123</v>
       </c>
       <c r="C2" t="n">
-        <v>6286.3349</v>
+        <v>6187.141500000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.35035</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4041.345999999999</v>
+        <v>4098.746800000001</v>
       </c>
       <c r="F2" t="n">
-        <v>687550.8047499998</v>
+        <v>653832.27975</v>
       </c>
       <c r="G2" t="n">
-        <v>596937.1612500001</v>
+        <v>568367.3552999999</v>
       </c>
       <c r="H2" t="n">
-        <v>90613.64325000001</v>
+        <v>85464.92449999999</v>
       </c>
       <c r="I2" t="n">
-        <v>37685.01899999999</v>
+        <v>35922.63370000001</v>
       </c>
       <c r="J2" t="n">
-        <v>52928.62424999999</v>
+        <v>49542.2908</v>
       </c>
       <c r="K2" t="n">
-        <v>687297.5466</v>
+        <v>659707.4276000001</v>
       </c>
       <c r="L2" t="n">
-        <v>596937.175</v>
+        <v>568367.368</v>
       </c>
       <c r="M2" t="n">
-        <v>90360.3716</v>
+        <v>91340.05959999999</v>
       </c>
       <c r="N2" t="n">
-        <v>41648.792</v>
+        <v>42926.9698</v>
       </c>
       <c r="O2" t="n">
-        <v>48711.5796</v>
+        <v>48413.09</v>
       </c>
     </row>
     <row r="3">
@@ -1056,46 +1056,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2784.053</v>
+        <v>2664.22</v>
       </c>
       <c r="C3" t="n">
-        <v>6560.85</v>
+        <v>6388.932</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2654.835</v>
+        <v>3142.458</v>
       </c>
       <c r="F3" t="n">
-        <v>733761.424</v>
+        <v>700933.33</v>
       </c>
       <c r="G3" t="n">
-        <v>604405.701</v>
+        <v>587548.3689999999</v>
       </c>
       <c r="H3" t="n">
-        <v>129355.722</v>
+        <v>113384.961</v>
       </c>
       <c r="I3" t="n">
-        <v>56189.162</v>
+        <v>47515.456</v>
       </c>
       <c r="J3" t="n">
-        <v>73166.56</v>
+        <v>65869.505</v>
       </c>
       <c r="K3" t="n">
-        <v>686914.7704</v>
+        <v>659128.7048000001</v>
       </c>
       <c r="L3" t="n">
-        <v>604405.643</v>
+        <v>587548.432</v>
       </c>
       <c r="M3" t="n">
-        <v>82509.1274</v>
+        <v>71580.27280000001</v>
       </c>
       <c r="N3" t="n">
-        <v>46905.218</v>
+        <v>41828.311</v>
       </c>
       <c r="O3" t="n">
-        <v>35603.9096</v>
+        <v>29751.9618</v>
       </c>
     </row>
     <row r="4">
@@ -1105,46 +1105,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4370.877</v>
+        <v>4453.662</v>
       </c>
       <c r="C4" t="n">
-        <v>5440.119</v>
+        <v>5543.459</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5319.21</v>
+        <v>4738.919</v>
       </c>
       <c r="F4" t="n">
-        <v>962132.608</v>
+        <v>909377.991</v>
       </c>
       <c r="G4" t="n">
-        <v>757075.2169999999</v>
+        <v>766298.265</v>
       </c>
       <c r="H4" t="n">
-        <v>205057.391</v>
+        <v>143079.726</v>
       </c>
       <c r="I4" t="n">
-        <v>58109.198</v>
+        <v>57813.58</v>
       </c>
       <c r="J4" t="n">
-        <v>146948.193</v>
+        <v>85266.14599999999</v>
       </c>
       <c r="K4" t="n">
-        <v>780740.6624</v>
+        <v>781604.7429999999</v>
       </c>
       <c r="L4" t="n">
-        <v>764924.6310000001</v>
+        <v>774147.678</v>
       </c>
       <c r="M4" t="n">
-        <v>15816.0314</v>
+        <v>7457.065</v>
       </c>
       <c r="N4" t="n">
-        <v>6623.8414</v>
+        <v>6426.1798</v>
       </c>
       <c r="O4" t="n">
-        <v>9192.190200000001</v>
+        <v>1030.8852</v>
       </c>
     </row>
   </sheetData>
@@ -1250,46 +1250,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2839.7963</v>
+        <v>2616.641</v>
       </c>
       <c r="C2" t="n">
-        <v>6421.980699999998</v>
+        <v>6369.8743</v>
       </c>
       <c r="D2" t="n">
-        <v>1.11895</v>
+        <v>0.8878</v>
       </c>
       <c r="E2" t="n">
-        <v>4101.980799999999</v>
+        <v>3824.308</v>
       </c>
       <c r="F2" t="n">
-        <v>707695.3770999998</v>
+        <v>673255.26105</v>
       </c>
       <c r="G2" t="n">
-        <v>616369.949</v>
+        <v>586425.8946999999</v>
       </c>
       <c r="H2" t="n">
-        <v>91325.42765</v>
+        <v>86829.36649999997</v>
       </c>
       <c r="I2" t="n">
-        <v>39443.63474999999</v>
+        <v>39486.67635</v>
       </c>
       <c r="J2" t="n">
-        <v>51881.79289999999</v>
+        <v>47342.69014999999</v>
       </c>
       <c r="K2" t="n">
-        <v>654575.4521999999</v>
+        <v>625794.1323999999</v>
       </c>
       <c r="L2" t="n">
-        <v>616369.956</v>
+        <v>586425.901</v>
       </c>
       <c r="M2" t="n">
-        <v>38205.4962</v>
+        <v>39368.2314</v>
       </c>
       <c r="N2" t="n">
-        <v>15988.1458</v>
+        <v>16678.635</v>
       </c>
       <c r="O2" t="n">
-        <v>22217.3504</v>
+        <v>22689.5964</v>
       </c>
     </row>
     <row r="3">
@@ -1299,46 +1299,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2877.914</v>
+        <v>2691.734</v>
       </c>
       <c r="C3" t="n">
-        <v>6594.431</v>
+        <v>6595.794</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3253.489</v>
+        <v>3056.044</v>
       </c>
       <c r="F3" t="n">
-        <v>741654.047</v>
+        <v>708209.27</v>
       </c>
       <c r="G3" t="n">
-        <v>621066.454</v>
+        <v>598073.144</v>
       </c>
       <c r="H3" t="n">
-        <v>120587.594</v>
+        <v>110136.125</v>
       </c>
       <c r="I3" t="n">
-        <v>52588.624</v>
+        <v>49926.072</v>
       </c>
       <c r="J3" t="n">
-        <v>67998.97</v>
+        <v>60210.053</v>
       </c>
       <c r="K3" t="n">
-        <v>658464.6374</v>
+        <v>633550.0596</v>
       </c>
       <c r="L3" t="n">
-        <v>621066.406</v>
+        <v>598073.154</v>
       </c>
       <c r="M3" t="n">
-        <v>37398.2314</v>
+        <v>35476.9056</v>
       </c>
       <c r="N3" t="n">
-        <v>17426.7656</v>
+        <v>16256.2612</v>
       </c>
       <c r="O3" t="n">
-        <v>19971.4658</v>
+        <v>19220.6444</v>
       </c>
     </row>
     <row r="4">
@@ -1348,46 +1348,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4370.877</v>
+        <v>4453.662</v>
       </c>
       <c r="C4" t="n">
-        <v>5440.119</v>
+        <v>5543.459</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5319.21</v>
+        <v>4738.919</v>
       </c>
       <c r="F4" t="n">
-        <v>962132.608</v>
+        <v>909377.991</v>
       </c>
       <c r="G4" t="n">
-        <v>757075.2169999999</v>
+        <v>766298.265</v>
       </c>
       <c r="H4" t="n">
-        <v>205057.391</v>
+        <v>143079.726</v>
       </c>
       <c r="I4" t="n">
-        <v>58109.198</v>
+        <v>57813.58</v>
       </c>
       <c r="J4" t="n">
-        <v>146948.193</v>
+        <v>85266.14599999999</v>
       </c>
       <c r="K4" t="n">
-        <v>780341.5305999999</v>
+        <v>785329.444</v>
       </c>
       <c r="L4" t="n">
-        <v>764924.6310000001</v>
+        <v>774147.678</v>
       </c>
       <c r="M4" t="n">
-        <v>15416.8996</v>
+        <v>11181.766</v>
       </c>
       <c r="N4" t="n">
-        <v>4825.4184</v>
+        <v>4579.151599999999</v>
       </c>
       <c r="O4" t="n">
-        <v>10591.481</v>
+        <v>6602.6144</v>
       </c>
     </row>
   </sheetData>
@@ -1493,46 +1493,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2751.3298</v>
+        <v>2545.495</v>
       </c>
       <c r="C2" t="n">
-        <v>6408.745499999999</v>
+        <v>6380.50295</v>
       </c>
       <c r="D2" t="n">
-        <v>1.4693</v>
+        <v>0.8878</v>
       </c>
       <c r="E2" t="n">
-        <v>3988.59265</v>
+        <v>3506.086349999999</v>
       </c>
       <c r="F2" t="n">
-        <v>698388.2465</v>
+        <v>666123.5179999999</v>
       </c>
       <c r="G2" t="n">
-        <v>604764.0962499999</v>
+        <v>576207.5757</v>
       </c>
       <c r="H2" t="n">
-        <v>93624.14999999999</v>
+        <v>89915.94245</v>
       </c>
       <c r="I2" t="n">
-        <v>40548.78369999999</v>
+        <v>41518.32995</v>
       </c>
       <c r="J2" t="n">
-        <v>53075.36629999998</v>
+        <v>48397.6125</v>
       </c>
       <c r="K2" t="n">
-        <v>699527.655</v>
+        <v>666133.5338</v>
       </c>
       <c r="L2" t="n">
-        <v>604764.108</v>
+        <v>576207.5820000001</v>
       </c>
       <c r="M2" t="n">
-        <v>94763.54699999999</v>
+        <v>89925.9518</v>
       </c>
       <c r="N2" t="n">
-        <v>51476.54919999999</v>
+        <v>50248.1024</v>
       </c>
       <c r="O2" t="n">
-        <v>43286.9978</v>
+        <v>39677.8492</v>
       </c>
     </row>
     <row r="3">
@@ -1542,46 +1542,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2784.111</v>
+        <v>2659.375</v>
       </c>
       <c r="C3" t="n">
-        <v>6598.871</v>
+        <v>6435.508</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3142.458</v>
+        <v>3343.039</v>
       </c>
       <c r="F3" t="n">
-        <v>731018.746</v>
+        <v>699250.143</v>
       </c>
       <c r="G3" t="n">
-        <v>609539.8639999999</v>
+        <v>590290.827</v>
       </c>
       <c r="H3" t="n">
-        <v>121478.882</v>
+        <v>108959.316</v>
       </c>
       <c r="I3" t="n">
-        <v>49269.72</v>
+        <v>44081.989</v>
       </c>
       <c r="J3" t="n">
-        <v>72209.162</v>
+        <v>64877.326</v>
       </c>
       <c r="K3" t="n">
-        <v>697326.0209999999</v>
+        <v>665959.287</v>
       </c>
       <c r="L3" t="n">
-        <v>609539.929</v>
+        <v>590290.847</v>
       </c>
       <c r="M3" t="n">
-        <v>87786.09200000002</v>
+        <v>75668.43999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>53439.3562</v>
+        <v>46122.6364</v>
       </c>
       <c r="O3" t="n">
-        <v>34346.7364</v>
+        <v>29545.8038</v>
       </c>
     </row>
     <row r="4">
@@ -1591,46 +1591,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4370.877</v>
+        <v>4453.662</v>
       </c>
       <c r="C4" t="n">
-        <v>5440.119</v>
+        <v>5543.459</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5319.21</v>
+        <v>4738.919</v>
       </c>
       <c r="F4" t="n">
-        <v>962132.608</v>
+        <v>909377.991</v>
       </c>
       <c r="G4" t="n">
-        <v>757075.2169999999</v>
+        <v>766298.265</v>
       </c>
       <c r="H4" t="n">
-        <v>205057.391</v>
+        <v>143079.726</v>
       </c>
       <c r="I4" t="n">
-        <v>58109.198</v>
+        <v>57813.58</v>
       </c>
       <c r="J4" t="n">
-        <v>146948.193</v>
+        <v>85266.14599999999</v>
       </c>
       <c r="K4" t="n">
-        <v>783413.3492000001</v>
+        <v>782969.8799999999</v>
       </c>
       <c r="L4" t="n">
-        <v>764924.6310000001</v>
+        <v>774147.678</v>
       </c>
       <c r="M4" t="n">
-        <v>18488.7182</v>
+        <v>8822.201999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>9046.402599999999</v>
+        <v>5056.351</v>
       </c>
       <c r="O4" t="n">
-        <v>9442.3158</v>
+        <v>3765.851</v>
       </c>
     </row>
   </sheetData>
